--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sashank.Pappu\Documents\GitHub\azuredataecosystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F9871-D0EB-492F-8CA6-BD8438D5509E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F36FC-2227-498F-8175-9024B0241FAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC4F7FC0-C1D4-4E3A-ABED-8C43A4A3CFC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day1" sheetId="1" r:id="rId1"/>
-    <sheet name="Day 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Day 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Day1" sheetId="1" r:id="rId2"/>
+    <sheet name="Day 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Day 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>S.NO</t>
   </si>
@@ -129,13 +130,82 @@
   </si>
   <si>
     <t xml:space="preserve">Overall </t>
+  </si>
+  <si>
+    <t>Overall Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below is the detailed agenda : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Data Lake: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Azure Data Lake Storage &amp; Analytics Introduction . </t>
+  </si>
+  <si>
+    <t>2. Azure Data Lake Gen 1 Vs Gen2  &amp; Blob Storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Azure Data Lake Analytics (USQL ) - Reading text files using USQL and organizing with best practices . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Creating Catalog Tables using USQL for creating Schematized Tables and Procedures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Best Practices and its implementation approaches in Azure Data Lake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Data Factory : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Understanding Data Factory. Concepts . </t>
+  </si>
+  <si>
+    <t>2. Working with Linked Services &amp; Datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Working with Copying the Files from source to destination . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Working with Automating the Pipeline flow with Metadata Management. in ADF. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Realtime usecases in ADF. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Designing best practices in ADF implementation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Data Bricks : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introduction to Data Bricks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Integrating Data Lake with Gen1 &amp; Gen2 &amp; Blob Storage thorugh Mounting Approach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Data Bricks with Delta and Databricks File Management . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Applying transformations in Data Bricks . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Error Handling in Data Bricks . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Streaming Data in Databricks . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Integrating Data Bricks with Data Factory. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +220,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,12 +277,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +597,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37A7B0-0D6E-4B2E-9456-23D854D26068}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2620E14-7F07-4294-972D-31CDAA0CDDD8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -619,7 +843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58D8EE2-1BB2-4CC6-98A1-E2555DB25D34}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -693,7 +917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A77F46-5005-4DC3-AAC4-859A4C001534}">
   <dimension ref="A1:C5"/>
   <sheetViews>
